--- a/output_jp.xlsx
+++ b/output_jp.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanglei/git/Jluffy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3660CDC-3EC3-134D-8B6F-51921642BFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -853,13 +859,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -868,6 +873,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -906,25 +918,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -935,10 +946,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -976,71 +987,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,7 +1079,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1091,11 +1102,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1104,13 +1115,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1120,7 +1131,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1129,7 +1140,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1138,7 +1149,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1146,10 +1157,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1214,39 +1225,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
+    <col min="6" max="20" width="12.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:20" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1341,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1372,7 +1371,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:20" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +1403,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1435,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1466,7 +1465,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:20" ht="19.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1530,7 +1529,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:20" ht="17.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1560,7 +1559,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:20" ht="17.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:20" ht="17.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1620,7 +1619,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:20" ht="17.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -1650,7 +1649,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:20" ht="17.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1680,7 +1679,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:20" ht="17.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +1713,7 @@
       </c>
       <c r="T14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:20" ht="17.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:20" ht="17.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -1776,7 +1775,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:20" ht="17.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1808,7 +1807,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:20" ht="17.25" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="T18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:20" ht="17.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -1874,7 +1873,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:20" ht="17.25" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:20" ht="17.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -1936,7 +1935,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:20" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1968,7 +1967,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:20" ht="17.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -1998,7 +1997,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:20" ht="17.25" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -2028,7 +2027,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:20" ht="17.25" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -2058,7 +2057,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:20" ht="17.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:20" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -2120,7 +2119,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:20" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
@@ -2152,7 +2151,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:20" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -2186,7 +2185,7 @@
       </c>
       <c r="T29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:20" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:20" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:20" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
@@ -2278,7 +2277,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:20" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
@@ -2310,7 +2309,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:20" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>116</v>
       </c>
@@ -2342,7 +2341,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:20" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>118</v>
       </c>
@@ -2372,7 +2371,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:20" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>120</v>
       </c>
@@ -2404,7 +2403,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:20" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -2434,7 +2433,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:20" ht="17.25" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -2466,7 +2465,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:20" ht="17.25" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:20" ht="17.25" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>128</v>
       </c>
@@ -2528,7 +2527,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:20" ht="17.25" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>130</v>
       </c>
@@ -2562,7 +2561,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:20" ht="17.25" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>133</v>
       </c>
@@ -2594,7 +2593,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:20" ht="17.25" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -2626,7 +2625,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:20" ht="17.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>137</v>
       </c>
@@ -2658,7 +2657,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:20" ht="17.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
@@ -2688,7 +2687,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:20" ht="17.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
@@ -2718,7 +2717,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:20" ht="17.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -2748,7 +2747,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:20" ht="17.25" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -2778,7 +2777,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:20" ht="17.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
@@ -2808,7 +2807,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:20" ht="17.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2838,7 +2837,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:20" ht="17.25" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>150</v>
       </c>
@@ -2868,7 +2867,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:20" ht="17.25" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -2898,7 +2897,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:20" ht="17.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -2928,7 +2927,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:20" ht="17.25" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>156</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:20" ht="17.25" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -2990,7 +2989,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:20" ht="17.25" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -3020,7 +3019,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:20" ht="17.25" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
@@ -3050,7 +3049,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:20" ht="17.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>167</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:20" ht="17.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>169</v>
       </c>
@@ -3110,7 +3109,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:20" ht="17.25" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>170</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:20" ht="17.25" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>172</v>
       </c>
@@ -3170,7 +3169,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:20" ht="17.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>174</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row r="63" spans="1:20" ht="17.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row r="64" spans="1:20" ht="17.25" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>180</v>
       </c>
@@ -3260,7 +3259,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row r="65" spans="1:20" ht="17.25" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
@@ -3290,7 +3289,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row r="66" spans="1:20" ht="17.25" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row r="67" spans="1:20" ht="17.25" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -3350,7 +3349,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row r="68" spans="1:20" ht="17.25" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>191</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row r="69" spans="1:20" ht="17.25" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>194</v>
       </c>
@@ -3414,7 +3413,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row r="70" spans="1:20" ht="17.25" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row r="71" spans="1:20" ht="17.25" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>204</v>
       </c>
@@ -3480,7 +3479,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:20" ht="17.25" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>208</v>
       </c>
@@ -3512,7 +3511,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:20" ht="17.25" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -3546,7 +3545,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:20" ht="17.25" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>217</v>
       </c>
@@ -3580,7 +3579,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row r="75" spans="1:20" ht="17.25" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>222</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row r="76" spans="1:20" ht="17.25" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>227</v>
       </c>
@@ -3648,7 +3647,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row r="77" spans="1:20" ht="17.25" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>232</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:20" ht="17.25" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>237</v>
       </c>
@@ -3718,7 +3717,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:20" ht="17.25" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>243</v>
       </c>
@@ -3758,7 +3757,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row r="80" spans="1:20" ht="17.25" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>251</v>
       </c>
@@ -3792,7 +3791,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:20" ht="17.25" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>256</v>
       </c>
@@ -3826,7 +3825,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row r="82" spans="1:20" ht="17.25" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>259</v>
       </c>
@@ -3856,7 +3855,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:20" ht="17.25" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>261</v>
       </c>
@@ -3890,7 +3889,7 @@
       </c>
       <c r="T83" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row r="84" spans="1:20" ht="17.25" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>266</v>
       </c>
@@ -3920,7 +3919,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row r="85" spans="1:20" ht="17.25" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>268</v>
       </c>
@@ -3950,7 +3949,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:20" ht="17.25" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>270</v>
       </c>
@@ -3982,7 +3981,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:20" ht="17.25" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>272</v>
       </c>
@@ -4014,7 +4013,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row r="88" spans="1:20" ht="17.25" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
@@ -4044,7 +4043,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row r="89" spans="1:20" ht="17.25" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>276</v>
       </c>
@@ -4075,6 +4074,7 @@
       <c r="T89" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>